--- a/alirank.xlsx
+++ b/alirank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Dropbox\aliran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC7BE84-FCC8-49D9-95B0-6313C96A8899}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE86759-FF93-4472-B8C2-7FBEC239F1FF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="-120" windowWidth="27960" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4006,14 +4006,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Z348"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G227" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G299" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T256" sqref="T256"/>
+      <selection pane="bottomRight" activeCell="W175" sqref="W175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4095,7 +4094,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4278,7 +4277,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4398,7 +4397,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4581,7 +4580,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4641,7 +4640,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4704,7 +4703,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4824,7 +4823,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4887,7 +4886,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4950,7 +4949,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5013,7 +5012,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5076,7 +5075,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5136,7 +5135,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5202,7 +5201,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5505,7 +5504,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5634,7 +5633,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5757,7 +5756,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5817,7 +5816,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6057,7 +6056,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6177,7 +6176,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6240,7 +6239,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6543,7 +6542,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6963,7 +6962,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -7626,7 +7625,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7686,7 +7685,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7749,7 +7748,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7791,7 +7790,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7854,7 +7853,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7917,7 +7916,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -8040,7 +8039,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -8103,7 +8102,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -8265,7 +8264,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="71" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -8328,7 +8327,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="72" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -8370,7 +8369,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="73" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -8439,7 +8438,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -8481,7 +8480,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="75" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -8583,7 +8582,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -8643,7 +8642,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="78" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8949,7 +8948,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -9009,7 +9008,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -9072,7 +9071,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -9135,7 +9134,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -9195,7 +9194,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -9297,7 +9296,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -9420,7 +9419,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -9540,7 +9539,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -9606,7 +9605,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="94" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -9666,7 +9665,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -9729,7 +9728,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -9801,7 +9800,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -9861,7 +9860,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="98" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -9987,7 +9986,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -10116,7 +10115,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>101</v>
       </c>
@@ -10176,7 +10175,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="103" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>102</v>
       </c>
@@ -10239,7 +10238,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="104" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>103</v>
       </c>
@@ -10350,7 +10349,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="106" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>105</v>
       </c>
@@ -10410,7 +10409,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="107" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>106</v>
       </c>
@@ -10473,7 +10472,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="108" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>107</v>
       </c>
@@ -10542,7 +10541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>108</v>
       </c>
@@ -10731,7 +10730,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="112" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>111</v>
       </c>
@@ -10800,7 +10799,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="113" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>112</v>
       </c>
@@ -10869,7 +10868,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>113</v>
       </c>
@@ -10989,7 +10988,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="116" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>115</v>
       </c>
@@ -11232,7 +11231,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="120" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>119</v>
       </c>
@@ -11352,7 +11351,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="122" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>121</v>
       </c>
@@ -11481,7 +11480,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>123</v>
       </c>
@@ -11610,7 +11609,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>125</v>
       </c>
@@ -11679,7 +11678,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="127" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>126</v>
       </c>
@@ -11808,7 +11807,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="129" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>128</v>
       </c>
@@ -11868,7 +11867,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>129</v>
       </c>
@@ -11931,7 +11930,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="131" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>130</v>
       </c>
@@ -11991,7 +11990,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="132" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>131</v>
       </c>
@@ -12057,7 +12056,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="133" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>132</v>
       </c>
@@ -12123,7 +12122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>133</v>
       </c>
@@ -12189,7 +12188,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="135" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>134</v>
       </c>
@@ -12249,7 +12248,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="136" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>135</v>
       </c>
@@ -12375,7 +12374,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="138" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>137</v>
       </c>
@@ -12720,7 +12719,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="144" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>143</v>
       </c>
@@ -12783,7 +12782,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="145" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>144</v>
       </c>
@@ -12846,7 +12845,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="146" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>145</v>
       </c>
@@ -12969,7 +12968,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="148" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>147</v>
       </c>
@@ -13086,7 +13085,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="150" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>149</v>
       </c>
@@ -13209,7 +13208,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="152" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>151</v>
       </c>
@@ -13269,7 +13268,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="153" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>152</v>
       </c>
@@ -13332,7 +13331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>153</v>
       </c>
@@ -13515,7 +13514,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="157" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>156</v>
       </c>
@@ -13575,7 +13574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>157</v>
       </c>
@@ -13698,7 +13697,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="160" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>159</v>
       </c>
@@ -13878,7 +13877,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="163" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>162</v>
       </c>
@@ -14049,7 +14048,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="166" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>165</v>
       </c>
@@ -14106,7 +14105,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="167" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>166</v>
       </c>
@@ -14166,7 +14165,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="168" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>167</v>
       </c>
@@ -14223,7 +14222,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="169" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>168</v>
       </c>
@@ -14337,7 +14336,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="171" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>170</v>
       </c>
@@ -14451,7 +14450,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="173" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>172</v>
       </c>
@@ -14508,7 +14507,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="174" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>173</v>
       </c>
@@ -14676,7 +14675,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="177" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>176</v>
       </c>
@@ -14733,7 +14732,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="178" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>177</v>
       </c>
@@ -14790,7 +14789,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="179" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>178</v>
       </c>
@@ -14904,7 +14903,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="181" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>180</v>
       </c>
@@ -15018,7 +15017,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="183" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>182</v>
       </c>
@@ -15126,7 +15125,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="185" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>184</v>
       </c>
@@ -15180,7 +15179,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="186" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>185</v>
       </c>
@@ -15237,7 +15236,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="187" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>186</v>
       </c>
@@ -15402,7 +15401,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="190" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>189</v>
       </c>
@@ -15456,7 +15455,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="191" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>190</v>
       </c>
@@ -15618,7 +15617,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="194" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>193</v>
       </c>
@@ -15672,7 +15671,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="195" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>194</v>
       </c>
@@ -15726,7 +15725,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="196" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>195</v>
       </c>
@@ -15780,7 +15779,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="197" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>196</v>
       </c>
@@ -15837,7 +15836,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="198" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>197</v>
       </c>
@@ -15954,7 +15953,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="200" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>199</v>
       </c>
@@ -16056,7 +16055,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="202" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>201</v>
       </c>
@@ -16161,7 +16160,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="204" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>203</v>
       </c>
@@ -16260,7 +16259,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="206" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>205</v>
       </c>
@@ -16314,7 +16313,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="207" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>206</v>
       </c>
@@ -16368,7 +16367,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="208" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>207</v>
       </c>
@@ -16473,7 +16472,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="210" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>209</v>
       </c>
@@ -16725,7 +16724,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="215" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>214</v>
       </c>
@@ -16983,7 +16982,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="220" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>219</v>
       </c>
@@ -17088,7 +17087,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="222" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>221</v>
       </c>
@@ -17190,7 +17189,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="224" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>223</v>
       </c>
@@ -17286,7 +17285,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="226" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>225</v>
       </c>
@@ -17478,7 +17477,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="230" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>229</v>
       </c>
@@ -17721,7 +17720,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="235" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>234</v>
       </c>
@@ -17772,7 +17771,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="236" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>235</v>
       </c>
@@ -17871,7 +17870,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="238" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>237</v>
       </c>
@@ -17967,7 +17966,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="240" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>239</v>
       </c>
@@ -18450,7 +18449,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="250" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>249</v>
       </c>
@@ -18498,7 +18497,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="251" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>250</v>
       </c>
@@ -18633,7 +18632,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="254" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>253</v>
       </c>
@@ -18681,7 +18680,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="255" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>254</v>
       </c>
@@ -18774,7 +18773,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="257" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>256</v>
       </c>
@@ -18822,7 +18821,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="258" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>257</v>
       </c>
@@ -18912,7 +18911,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="260" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>259</v>
       </c>
@@ -18960,7 +18959,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="261" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>260</v>
       </c>
@@ -19005,7 +19004,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="262" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>261</v>
       </c>
@@ -19053,7 +19052,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="263" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>262</v>
       </c>
@@ -19098,7 +19097,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="264" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>263</v>
       </c>
@@ -19140,7 +19139,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="265" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>264</v>
       </c>
@@ -19224,7 +19223,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="267" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>266</v>
       </c>
@@ -19269,7 +19268,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="268" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>267</v>
       </c>
@@ -19311,7 +19310,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="269" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>268</v>
       </c>
@@ -19353,7 +19352,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="270" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>269</v>
       </c>
@@ -19398,7 +19397,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="271" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A271">
         <v>270</v>
       </c>
@@ -19485,7 +19484,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="273" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>272</v>
       </c>
@@ -19527,7 +19526,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="274" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>273</v>
       </c>
@@ -19653,7 +19652,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="277" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>276</v>
       </c>
@@ -19695,7 +19694,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="278" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>277</v>
       </c>
@@ -19737,7 +19736,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="279" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>278</v>
       </c>
@@ -19776,7 +19775,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="280" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>279</v>
       </c>
@@ -19818,7 +19817,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="281" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>280</v>
       </c>
@@ -19860,7 +19859,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="282" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>281</v>
       </c>
@@ -19935,7 +19934,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="284" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>283</v>
       </c>
@@ -19977,7 +19976,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="285" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>284</v>
       </c>
@@ -20019,7 +20018,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="286" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>285</v>
       </c>
@@ -20097,7 +20096,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="288" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A288">
         <v>287</v>
       </c>
@@ -20244,7 +20243,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="292" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A292">
         <v>291</v>
       </c>
@@ -20283,7 +20282,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="293" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>292</v>
       </c>
@@ -20463,7 +20462,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="298" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A298">
         <v>297</v>
       </c>
@@ -20499,7 +20498,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="299" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>298</v>
       </c>
@@ -20538,7 +20537,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="300" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A300">
         <v>299</v>
       </c>
@@ -20577,7 +20576,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="301" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>300</v>
       </c>
@@ -20616,7 +20615,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="302" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A302">
         <v>301</v>
       </c>
@@ -20832,7 +20831,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="308" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A308">
         <v>307</v>
       </c>
@@ -20868,7 +20867,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="309" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A309">
         <v>308</v>
       </c>
@@ -20979,7 +20978,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="312" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A312">
         <v>311</v>
       </c>
@@ -21015,7 +21014,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="313" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A313">
         <v>312</v>
       </c>
@@ -21051,7 +21050,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="314" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A314">
         <v>313</v>
       </c>
@@ -21084,7 +21083,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="315" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A315">
         <v>314</v>
       </c>
@@ -21150,7 +21149,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="317" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A317">
         <v>316</v>
       </c>
@@ -21183,7 +21182,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="318" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A318">
         <v>317</v>
       </c>
@@ -21216,7 +21215,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="319" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A319">
         <v>318</v>
       </c>
@@ -21249,7 +21248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="320" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A320">
         <v>319</v>
       </c>
@@ -21282,7 +21281,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="321" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A321">
         <v>320</v>
       </c>
@@ -21315,7 +21314,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="322" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A322">
         <v>321</v>
       </c>
@@ -21345,7 +21344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="323" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A323">
         <v>322</v>
       </c>
@@ -21375,7 +21374,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="324" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A324">
         <v>323</v>
       </c>
@@ -21432,7 +21431,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="326" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A326">
         <v>325</v>
       </c>
@@ -21459,7 +21458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="327" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A327">
         <v>326</v>
       </c>
@@ -21486,7 +21485,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="328" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A328">
         <v>327</v>
       </c>
@@ -21513,7 +21512,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="329" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A329">
         <v>328</v>
       </c>
@@ -21540,7 +21539,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="330" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A330">
         <v>329</v>
       </c>
@@ -21570,7 +21569,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="331" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A331">
         <v>330</v>
       </c>
@@ -21597,7 +21596,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="332" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A332">
         <v>331</v>
       </c>
@@ -21624,7 +21623,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="333" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A333">
         <v>332</v>
       </c>
@@ -21651,7 +21650,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="334" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A334">
         <v>333</v>
       </c>
@@ -21678,7 +21677,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="335" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A335">
         <v>334</v>
       </c>
@@ -21705,7 +21704,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="336" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A336">
         <v>335</v>
       </c>
@@ -21732,7 +21731,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A337">
         <v>336</v>
       </c>
@@ -21756,7 +21755,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="338" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A338">
         <v>337</v>
       </c>
@@ -21780,7 +21779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A339">
         <v>338</v>
       </c>
@@ -21804,7 +21803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A340">
         <v>339</v>
       </c>
@@ -21828,7 +21827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A341">
         <v>340</v>
       </c>
@@ -21852,7 +21851,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="342" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A342">
         <v>341</v>
       </c>
@@ -21876,7 +21875,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="343" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A343">
         <v>342</v>
       </c>
@@ -21900,7 +21899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A344">
         <v>343</v>
       </c>
@@ -21924,7 +21923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="345" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A345">
         <v>344</v>
       </c>
@@ -21948,7 +21947,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="346" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A346">
         <v>345</v>
       </c>
@@ -21972,7 +21971,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="347" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A347">
         <v>346</v>
       </c>
@@ -21996,7 +21995,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="348" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A348">
         <v>347</v>
       </c>
@@ -22021,11 +22020,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W348" xr:uid="{206F0D0B-F3D5-47D6-9357-02F8DEC3F715}">
-    <filterColumn colId="22">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:W348" xr:uid="{206F0D0B-F3D5-47D6-9357-02F8DEC3F715}"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G3:U344 W324 W157 W191 W133 W282 W264 W97 W60 W197 W181 W284:W286 W202 W312 W240 W257:W258 W34 W301 W274 W267:W268 W262 W131 W36 W215 W7 W167:W169 W270:W271 W144:W146 W138 W126 W135:W136 W120 W10:W12 W62:W63 W68 W72 W74:W75 W77 W91 W102 W104 W106:W109 W114 W177 W194:W195 W222 W238 W250:W251 W277:W278 W288 W298:W299 W308:W309 W321 W14 W17 W224 W230 W235:W236 W317:W318 W210 W30 W84:W87 W185 W153:W154 W20 W220 W260">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
